--- a/relatedFiles/other files/EDITED service excel list - Copy 1.xlsx
+++ b/relatedFiles/other files/EDITED service excel list - Copy 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Dev\Laravel\_Developing_Phase_Project\Murarkey Single Vendor\Murarkey_single_vendor_ecommerce_with_vuexy_template\relatedFiles\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E637A-EC03-4E57-A968-84B01FC2670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCFD98B-D5EF-4392-88FD-A1ABDE82BD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
